--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\ExcelTest\UnityExcelTool\UnityProject\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzbswh\Desktop\UnityExcelTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6044127D-5D6D-4FE8-8750-9622856D8189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A712629-A376-4712-8848-70A85DA24A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="2775" windowWidth="27645" windowHeight="17490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1995" yWindow="3240" windowWidth="27630" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s_ttt" sheetId="1" r:id="rId1"/>
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +229,10 @@
   </si>
   <si>
     <t>cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +575,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:XFD1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,13 +589,13 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
+      <c r="C1" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -796,7 +796,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -810,15 +810,15 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzbswh\Desktop\UnityExcelTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A712629-A376-4712-8848-70A85DA24A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A166E46E-53D6-433C-93C8-A2222B255EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1995" yWindow="3240" windowWidth="27630" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="120" windowWidth="27630" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s_ttt" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="52">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,11 +228,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache
+export</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +276,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -288,10 +295,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -590,7 +603,7 @@
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -796,214 +809,220 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="4" max="4" width="30.125" customWidth="1"/>
-    <col min="7" max="7" width="28.5" customWidth="1"/>
-    <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="45.875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="30.125" style="6" customWidth="1"/>
+    <col min="5" max="6" width="9" style="6"/>
+    <col min="7" max="7" width="28.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="34" style="6" customWidth="1"/>
+    <col min="9" max="9" width="45.875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>51</v>
+      <c r="I1" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>3</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>4</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <v>5</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>6</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="6">
         <v>7</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="6">
         <v>3.444</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="6">
         <v>34.22</v>
       </c>
     </row>

--- a/Test.xlsx
+++ b/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24822"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzbswh\Desktop\UnityExcelTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\UnityExcelTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A166E46E-53D6-433C-93C8-A2222B255EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A979FF9-F119-44EB-AB93-6136D2569765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="120" windowWidth="27630" windowHeight="14385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1635" windowWidth="27645" windowHeight="18540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s_ttt" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
